--- a/formats/excel/PSY/2023/Formats R3A 23.xlsx
+++ b/formats/excel/PSY/2023/Formats R3A 23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/PSY/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/PSY/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503C683-044F-C74C-9254-D9442515364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD5EE7-F0B6-144E-9315-2E243E061D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>libelle</t>
   </si>
@@ -230,13 +230,22 @@
   </si>
   <si>
     <t>MODREALACT</t>
+  </si>
+  <si>
+    <t>N° séquentiel UM</t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
+  <si>
+    <t>NOSEQUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +273,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -315,16 +331,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1161,56 +1191,104 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:C30" si="0">D26+1</f>
         <v>134</v>
       </c>
-      <c r="D27">
-        <v>139</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:D30" si="1">C27+B27-1</f>
+        <v>137</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>140</v>
-      </c>
-      <c r="D28">
-        <v>141</v>
-      </c>
-      <c r="E28" t="s">
-        <v>52</v>
+      <c r="A28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="C29">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C31">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
